--- a/Programs/Conference Call Bingo.xlsx
+++ b/Programs/Conference Call Bingo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\Conferences\All Papers and Presentations\Boredom Buster Bingo - Conference Call Bingo\Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\GitHub\SASsy_Bingo\Programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52F758F-3A2D-4A98-9687-E2F4E7FD8DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D23024F-286B-41C1-9A8D-6018A3069B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{43A51613-CB0B-46B7-A958-F76A4C4C4A6E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Hi! Who just joined?</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>I have zoom fatigue</t>
+  </si>
+  <si>
+    <t>uh huh (feigning interest)</t>
   </si>
 </sst>
 </file>
@@ -633,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED031A0-D5E4-4117-BF45-CE4BF91D67E9}">
-  <dimension ref="A1:A78"/>
+  <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+      <selection activeCell="A80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1034,6 +1037,11 @@
         <v>75</v>
       </c>
     </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
